--- a/Code/Results/Cases/Case_9_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.53090326339218</v>
+        <v>24.5196423152627</v>
       </c>
       <c r="C2">
-        <v>19.06003406846336</v>
+        <v>20.30924043819617</v>
       </c>
       <c r="D2">
-        <v>3.621620484536212</v>
+        <v>3.739364208915515</v>
       </c>
       <c r="E2">
-        <v>29.2969165541818</v>
+        <v>29.24753500204376</v>
       </c>
       <c r="F2">
-        <v>26.34318458596344</v>
+        <v>24.15411917112478</v>
       </c>
       <c r="G2">
-        <v>37.79152605013753</v>
+        <v>33.37632738375552</v>
       </c>
       <c r="H2">
-        <v>3.211362133160035</v>
+        <v>3.180460990177929</v>
       </c>
       <c r="I2">
-        <v>3.214303537912865</v>
+        <v>3.193016811522683</v>
       </c>
       <c r="J2">
-        <v>11.45712644252527</v>
+        <v>11.18839529231422</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.93318821919964</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.831571262094705</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.89650302217859</v>
+        <v>22.90366778222982</v>
       </c>
       <c r="C3">
-        <v>17.88400341895393</v>
+        <v>18.95268169982348</v>
       </c>
       <c r="D3">
-        <v>3.617726450866398</v>
+        <v>3.69449893836138</v>
       </c>
       <c r="E3">
-        <v>27.34466906614375</v>
+        <v>27.3220242306349</v>
       </c>
       <c r="F3">
-        <v>25.13887654156537</v>
+        <v>23.22281304566513</v>
       </c>
       <c r="G3">
-        <v>35.83886335686886</v>
+        <v>31.88330636066019</v>
       </c>
       <c r="H3">
-        <v>2.915056618618913</v>
+        <v>2.900913969409977</v>
       </c>
       <c r="I3">
-        <v>2.96413652300745</v>
+        <v>2.979438415618124</v>
       </c>
       <c r="J3">
-        <v>11.18066271234772</v>
+        <v>10.98926088654346</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.05884027233525</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.689699868874595</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.83353196486363</v>
+        <v>21.8520823863816</v>
       </c>
       <c r="C4">
-        <v>17.12930259951623</v>
+        <v>18.07915615538499</v>
       </c>
       <c r="D4">
-        <v>3.614319380038876</v>
+        <v>3.666395319100312</v>
       </c>
       <c r="E4">
-        <v>26.0804980302884</v>
+        <v>26.07451427892441</v>
       </c>
       <c r="F4">
-        <v>24.38078531954092</v>
+        <v>22.63831985642471</v>
       </c>
       <c r="G4">
-        <v>34.5996110990306</v>
+        <v>30.9431342050364</v>
       </c>
       <c r="H4">
-        <v>2.727516559372779</v>
+        <v>2.723790661574367</v>
       </c>
       <c r="I4">
-        <v>2.807102916090139</v>
+        <v>2.845431645585998</v>
       </c>
       <c r="J4">
-        <v>11.01125865847523</v>
+        <v>10.86498459865646</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.13306327928792</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.628403997414601</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.38508201313783</v>
+        <v>21.40833486813165</v>
       </c>
       <c r="C5">
-        <v>16.82934062553866</v>
+        <v>17.72706512626688</v>
       </c>
       <c r="D5">
-        <v>3.613218022613385</v>
+        <v>3.65598986261493</v>
       </c>
       <c r="E5">
-        <v>25.54839862043577</v>
+        <v>25.54935155987744</v>
       </c>
       <c r="F5">
-        <v>24.0423249742563</v>
+        <v>22.37583048398042</v>
       </c>
       <c r="G5">
-        <v>34.03941268236649</v>
+        <v>30.51535827000094</v>
       </c>
       <c r="H5">
-        <v>2.649411334845457</v>
+        <v>2.650003715050491</v>
       </c>
       <c r="I5">
-        <v>2.742619657714494</v>
+        <v>2.790776532811967</v>
       </c>
       <c r="J5">
-        <v>10.93321805152394</v>
+        <v>10.80644382223432</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.15026620588767</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.598966594946452</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.30940682047625</v>
+        <v>21.33346863601458</v>
       </c>
       <c r="C6">
-        <v>16.79832239825847</v>
+        <v>17.68518594338293</v>
       </c>
       <c r="D6">
-        <v>3.613702164947877</v>
+        <v>3.655720798718039</v>
       </c>
       <c r="E6">
-        <v>25.45858692892879</v>
+        <v>25.46076738992663</v>
       </c>
       <c r="F6">
-        <v>23.95506676206952</v>
+        <v>22.3059970795473</v>
       </c>
       <c r="G6">
-        <v>33.89012144926034</v>
+        <v>30.3962654431145</v>
       </c>
       <c r="H6">
-        <v>2.63607138701413</v>
+        <v>2.637426527284658</v>
       </c>
       <c r="I6">
-        <v>2.732550564625679</v>
+        <v>2.782747218575598</v>
       </c>
       <c r="J6">
-        <v>10.90910563163607</v>
+        <v>10.78763994639668</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.13806954846523</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.581113092586483</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.82673804240107</v>
+        <v>21.84503735854929</v>
       </c>
       <c r="C7">
-        <v>17.17680861741059</v>
+        <v>18.11387677325397</v>
       </c>
       <c r="D7">
-        <v>3.616198200860838</v>
+        <v>3.672953651874308</v>
       </c>
       <c r="E7">
-        <v>26.07216835232249</v>
+        <v>26.06560547885336</v>
       </c>
       <c r="F7">
-        <v>24.2934050907879</v>
+        <v>22.52507476916118</v>
       </c>
       <c r="G7">
-        <v>34.44265009409123</v>
+        <v>30.87039411166393</v>
       </c>
       <c r="H7">
-        <v>2.725709310628374</v>
+        <v>2.721621713143399</v>
       </c>
       <c r="I7">
-        <v>2.807708148503359</v>
+        <v>2.846433135031278</v>
       </c>
       <c r="J7">
-        <v>10.97995442744863</v>
+        <v>10.77568077720803</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.07586526826199</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.574838237352186</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.97862753632898</v>
+        <v>23.97262734545397</v>
       </c>
       <c r="C8">
-        <v>18.72468267527317</v>
+        <v>19.88632991686444</v>
       </c>
       <c r="D8">
-        <v>3.623210848203492</v>
+        <v>3.73906502061282</v>
       </c>
       <c r="E8">
-        <v>28.63576778454574</v>
+        <v>28.59317905464344</v>
       </c>
       <c r="F8">
-        <v>25.82831542702643</v>
+        <v>23.62319185943134</v>
       </c>
       <c r="G8">
-        <v>36.94115785885813</v>
+        <v>32.90026275890105</v>
       </c>
       <c r="H8">
-        <v>3.109375055412537</v>
+        <v>3.082720873367605</v>
       </c>
       <c r="I8">
-        <v>3.129934903944832</v>
+        <v>3.120063950734843</v>
       </c>
       <c r="J8">
-        <v>11.32288159937828</v>
+        <v>10.88201850774112</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.87425583228155</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.669592110091571</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.73234904593746</v>
+        <v>27.67948351839615</v>
       </c>
       <c r="C9">
-        <v>21.41835288802302</v>
+        <v>22.99020569834108</v>
       </c>
       <c r="D9">
-        <v>3.624946805013896</v>
+        <v>3.846339030257481</v>
       </c>
       <c r="E9">
-        <v>33.15067139788597</v>
+        <v>33.04087085636819</v>
       </c>
       <c r="F9">
-        <v>28.8154306235289</v>
+        <v>25.93178198663374</v>
       </c>
       <c r="G9">
-        <v>41.74949310780293</v>
+        <v>36.66816580222345</v>
       </c>
       <c r="H9">
-        <v>3.820433166061823</v>
+        <v>3.751961191018267</v>
       </c>
       <c r="I9">
-        <v>3.735266698729339</v>
+        <v>3.635232425335442</v>
       </c>
       <c r="J9">
-        <v>12.04882938835105</v>
+        <v>11.34967387734932</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.58390018594182</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.190379908783489</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.20454804864089</v>
+        <v>30.11513573468983</v>
       </c>
       <c r="C10">
-        <v>23.24787127933395</v>
+        <v>25.01740888816473</v>
       </c>
       <c r="D10">
-        <v>3.64194899904026</v>
+        <v>3.974342062831858</v>
       </c>
       <c r="E10">
-        <v>35.27987552754108</v>
+        <v>35.11705026009771</v>
       </c>
       <c r="F10">
-        <v>30.53525944899867</v>
+        <v>27.07046884567344</v>
       </c>
       <c r="G10">
-        <v>44.41549246342576</v>
+        <v>39.06654527199331</v>
       </c>
       <c r="H10">
-        <v>4.278875602916012</v>
+        <v>4.178656136739807</v>
       </c>
       <c r="I10">
-        <v>4.155573799899375</v>
+        <v>3.990181007828455</v>
       </c>
       <c r="J10">
-        <v>12.43930660280188</v>
+        <v>11.24098182189009</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.15214637179367</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.429277110534805</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.21741556038717</v>
+        <v>31.11849046340777</v>
       </c>
       <c r="C11">
-        <v>24.00077247733687</v>
+        <v>25.50354162303405</v>
       </c>
       <c r="D11">
-        <v>3.907660867721248</v>
+        <v>4.402585018774742</v>
       </c>
       <c r="E11">
-        <v>28.70825153248093</v>
+        <v>28.52233973986154</v>
       </c>
       <c r="F11">
-        <v>28.35661594112759</v>
+        <v>24.86991639043507</v>
       </c>
       <c r="G11">
-        <v>40.38641618949443</v>
+        <v>36.36347307062199</v>
       </c>
       <c r="H11">
-        <v>4.630997254694027</v>
+        <v>4.534825619872882</v>
       </c>
       <c r="I11">
-        <v>4.252171322419908</v>
+        <v>4.069939700212723</v>
       </c>
       <c r="J11">
-        <v>11.46957905596802</v>
+        <v>9.800853628983507</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.90568096772899</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.110863856111687</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.57568768984455</v>
+        <v>31.4763274658444</v>
       </c>
       <c r="C12">
-        <v>24.21166711695535</v>
+        <v>25.46917055983592</v>
       </c>
       <c r="D12">
-        <v>4.209899980541201</v>
+        <v>4.766872030489559</v>
       </c>
       <c r="E12">
-        <v>22.7761493012738</v>
+        <v>22.57353675469339</v>
       </c>
       <c r="F12">
-        <v>26.24292024035376</v>
+        <v>22.95756574414112</v>
       </c>
       <c r="G12">
-        <v>36.5834375061112</v>
+        <v>33.53318549014315</v>
       </c>
       <c r="H12">
-        <v>5.41074895611765</v>
+        <v>5.331880121632666</v>
       </c>
       <c r="I12">
-        <v>4.255572681598776</v>
+        <v>4.071164233356528</v>
       </c>
       <c r="J12">
-        <v>10.60721418755842</v>
+        <v>8.886477641317395</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.13059334610941</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.070124998055372</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.46385941435785</v>
+        <v>31.37159019171389</v>
       </c>
       <c r="C13">
-        <v>24.08661067570197</v>
+        <v>25.09913431467144</v>
       </c>
       <c r="D13">
-        <v>4.5413689004943</v>
+        <v>5.076276708940931</v>
       </c>
       <c r="E13">
-        <v>16.8722002262535</v>
+        <v>16.6528562713054</v>
       </c>
       <c r="F13">
-        <v>23.88632893252346</v>
+        <v>21.09147637687407</v>
       </c>
       <c r="G13">
-        <v>32.42117455246047</v>
+        <v>30.05021463300939</v>
       </c>
       <c r="H13">
-        <v>6.401661753109159</v>
+        <v>6.342219669253938</v>
       </c>
       <c r="I13">
-        <v>4.189047305278313</v>
+        <v>4.01617015141543</v>
       </c>
       <c r="J13">
-        <v>9.723517500540943</v>
+        <v>8.371343940714956</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.617008365487218</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.16589976693747</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.17247427817649</v>
+        <v>31.08823192153938</v>
       </c>
       <c r="C14">
-        <v>23.85952669352026</v>
+        <v>24.69508697591874</v>
       </c>
       <c r="D14">
-        <v>4.790276794795327</v>
+        <v>5.268771603747786</v>
       </c>
       <c r="E14">
-        <v>12.82441569508912</v>
+        <v>12.58626717409621</v>
       </c>
       <c r="F14">
-        <v>22.0812187104127</v>
+        <v>19.76589609777655</v>
       </c>
       <c r="G14">
-        <v>29.25682218218681</v>
+        <v>27.24512977668482</v>
       </c>
       <c r="H14">
-        <v>7.182596832828139</v>
+        <v>7.135353758117731</v>
       </c>
       <c r="I14">
-        <v>4.112862494014995</v>
+        <v>3.954153179279735</v>
       </c>
       <c r="J14">
-        <v>9.089062717628833</v>
+        <v>8.15927886203009</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.362495754699667</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.602526333178343</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.99905042605171</v>
+        <v>30.91844701876948</v>
       </c>
       <c r="C15">
-        <v>23.74652294630873</v>
+        <v>24.53570126417903</v>
       </c>
       <c r="D15">
-        <v>4.851034214501825</v>
+        <v>5.30221424192967</v>
       </c>
       <c r="E15">
-        <v>11.84864015140131</v>
+        <v>11.6076662334605</v>
       </c>
       <c r="F15">
-        <v>21.55993089026904</v>
+        <v>19.42236084748307</v>
       </c>
       <c r="G15">
-        <v>28.35324574110925</v>
+        <v>26.38336457541047</v>
       </c>
       <c r="H15">
-        <v>7.361299522311968</v>
+        <v>7.317455621608961</v>
       </c>
       <c r="I15">
-        <v>4.078708790173612</v>
+        <v>3.927005346686711</v>
       </c>
       <c r="J15">
-        <v>8.92138595498661</v>
+        <v>8.162204267064093</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.326627208401392</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.482815717800038</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.00905017111922</v>
+        <v>29.94477373715188</v>
       </c>
       <c r="C16">
-        <v>23.0444144507462</v>
+        <v>23.82454432059286</v>
       </c>
       <c r="D16">
-        <v>4.772731831730277</v>
+        <v>5.126927043581286</v>
       </c>
       <c r="E16">
-        <v>11.64784735780215</v>
+        <v>11.44794639972565</v>
       </c>
       <c r="F16">
-        <v>21.11233891921653</v>
+        <v>19.44617540520239</v>
       </c>
       <c r="G16">
-        <v>27.68348037085139</v>
+        <v>25.28300933855334</v>
       </c>
       <c r="H16">
-        <v>7.068414500204015</v>
+        <v>7.032199986421031</v>
       </c>
       <c r="I16">
-        <v>3.915752074341174</v>
+        <v>3.794751501391709</v>
       </c>
       <c r="J16">
-        <v>8.89573885228871</v>
+        <v>8.692328731566032</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.589005595666707</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.706907929256539</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.39412117369671</v>
+        <v>29.33786931046832</v>
       </c>
       <c r="C17">
-        <v>22.62152701492625</v>
+        <v>23.48570772478256</v>
       </c>
       <c r="D17">
-        <v>4.574642707841027</v>
+        <v>4.899253462334742</v>
       </c>
       <c r="E17">
-        <v>13.68823341111991</v>
+        <v>13.52675986127941</v>
       </c>
       <c r="F17">
-        <v>21.76746269729157</v>
+        <v>20.15101028542179</v>
       </c>
       <c r="G17">
-        <v>28.93169562786543</v>
+        <v>26.08180016836736</v>
       </c>
       <c r="H17">
-        <v>6.374699178148497</v>
+        <v>6.339047016442654</v>
       </c>
       <c r="I17">
-        <v>3.830136347939454</v>
+        <v>3.724752171184135</v>
       </c>
       <c r="J17">
-        <v>9.214971965097901</v>
+        <v>9.171171417026876</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.940440083650557</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.138684873701687</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.04885303746017</v>
+        <v>28.99451296575424</v>
       </c>
       <c r="C18">
-        <v>22.36818306522848</v>
+        <v>23.42170755073075</v>
       </c>
       <c r="D18">
-        <v>4.267982453685438</v>
+        <v>4.594802190166469</v>
       </c>
       <c r="E18">
-        <v>18.21353395893593</v>
+        <v>18.07945317582637</v>
       </c>
       <c r="F18">
-        <v>23.50308891730676</v>
+        <v>21.63779295499421</v>
       </c>
       <c r="G18">
-        <v>32.07609971142534</v>
+        <v>28.57973399480226</v>
       </c>
       <c r="H18">
-        <v>5.34705311615391</v>
+        <v>5.304641421469175</v>
       </c>
       <c r="I18">
-        <v>3.804806343636493</v>
+        <v>3.702688858688139</v>
       </c>
       <c r="J18">
-        <v>9.893880740867685</v>
+        <v>9.785961341658938</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.49551192966756</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.876747409693428</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.95419741294267</v>
+        <v>28.89616240718438</v>
       </c>
       <c r="C19">
-        <v>22.36142683172131</v>
+        <v>23.66528037798721</v>
       </c>
       <c r="D19">
-        <v>3.960526588022012</v>
+        <v>4.287322200781141</v>
       </c>
       <c r="E19">
-        <v>24.48701137681078</v>
+        <v>24.36238026248691</v>
       </c>
       <c r="F19">
-        <v>25.83042468072687</v>
+        <v>23.54633829573675</v>
       </c>
       <c r="G19">
-        <v>36.24162040305308</v>
+        <v>31.97526322714755</v>
       </c>
       <c r="H19">
-        <v>4.390743439308102</v>
+        <v>4.332828017303093</v>
       </c>
       <c r="I19">
-        <v>3.843016933659013</v>
+        <v>3.735265276800014</v>
       </c>
       <c r="J19">
-        <v>10.77336496724715</v>
+        <v>10.47909370672572</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.18583290653391</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.792769341174124</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.57149156688901</v>
+        <v>29.49336447394723</v>
       </c>
       <c r="C20">
-        <v>22.90388957270966</v>
+        <v>24.625394598741</v>
       </c>
       <c r="D20">
-        <v>3.647226900613994</v>
+        <v>3.946745887024339</v>
       </c>
       <c r="E20">
-        <v>34.68934760841302</v>
+        <v>34.54381458799596</v>
       </c>
       <c r="F20">
-        <v>29.86252180212573</v>
+        <v>26.69901934891507</v>
       </c>
       <c r="G20">
-        <v>43.32561053232371</v>
+        <v>37.9213547910851</v>
       </c>
       <c r="H20">
-        <v>4.155241748192545</v>
+        <v>4.065342697235468</v>
       </c>
       <c r="I20">
-        <v>4.049370900627206</v>
+        <v>3.906879657288628</v>
       </c>
       <c r="J20">
-        <v>12.24673716873795</v>
+        <v>11.40474392451181</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.21004092819133</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.290122969838716</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.39256966690029</v>
+        <v>31.27773928934239</v>
       </c>
       <c r="C21">
-        <v>24.24616000327116</v>
+        <v>26.07324098937024</v>
       </c>
       <c r="D21">
-        <v>3.625934035970167</v>
+        <v>4.057806086696665</v>
       </c>
       <c r="E21">
-        <v>37.60534538495781</v>
+        <v>37.40374689046199</v>
       </c>
       <c r="F21">
-        <v>31.71628548844597</v>
+        <v>27.41762347234896</v>
       </c>
       <c r="G21">
-        <v>46.31374177925936</v>
+        <v>41.47704383078888</v>
       </c>
       <c r="H21">
-        <v>4.564695675586449</v>
+        <v>4.440485195818789</v>
       </c>
       <c r="I21">
-        <v>4.38562263557436</v>
+        <v>4.178666906758645</v>
       </c>
       <c r="J21">
-        <v>12.76650447183323</v>
+        <v>10.42848799829915</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.82598580962713</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.426110339654226</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.53161632715589</v>
+        <v>32.39255398694605</v>
       </c>
       <c r="C22">
-        <v>25.04130234993756</v>
+        <v>26.91594527392478</v>
       </c>
       <c r="D22">
-        <v>3.617884391230498</v>
+        <v>4.147899670016366</v>
       </c>
       <c r="E22">
-        <v>39.00309628972006</v>
+        <v>38.76464613304348</v>
       </c>
       <c r="F22">
-        <v>32.81613766576196</v>
+        <v>27.77860992787048</v>
       </c>
       <c r="G22">
-        <v>48.06379629852172</v>
+        <v>43.68735807103511</v>
       </c>
       <c r="H22">
-        <v>4.808617337595258</v>
+        <v>4.662473002044576</v>
       </c>
       <c r="I22">
-        <v>4.596633414256137</v>
+        <v>4.347388385246774</v>
       </c>
       <c r="J22">
-        <v>13.07281712755711</v>
+        <v>9.718397145866465</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.54436990980191</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.487881791856593</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.92892627286215</v>
+        <v>31.80343172279421</v>
       </c>
       <c r="C23">
-        <v>24.57439311614106</v>
+        <v>26.4417156613146</v>
       </c>
       <c r="D23">
-        <v>3.619116589155678</v>
+        <v>4.082995804349544</v>
       </c>
       <c r="E23">
-        <v>38.2630974417575</v>
+        <v>38.04556869727939</v>
       </c>
       <c r="F23">
-        <v>32.30681249262906</v>
+        <v>27.73266528711854</v>
       </c>
       <c r="G23">
-        <v>47.26660692676305</v>
+        <v>42.49710791451643</v>
       </c>
       <c r="H23">
-        <v>4.679461401271834</v>
+        <v>4.545786455548209</v>
       </c>
       <c r="I23">
-        <v>4.482767754827816</v>
+        <v>4.255999668074857</v>
       </c>
       <c r="J23">
-        <v>12.94000325452726</v>
+        <v>10.2605998520672</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.76258960503036</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.545394270038498</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.54720384046875</v>
+        <v>29.46842259116779</v>
       </c>
       <c r="C24">
-        <v>22.81881983746915</v>
+        <v>24.57353332677307</v>
       </c>
       <c r="D24">
-        <v>3.626553454576827</v>
+        <v>3.911722529962421</v>
       </c>
       <c r="E24">
-        <v>35.35277606809195</v>
+        <v>35.20648428342143</v>
       </c>
       <c r="F24">
-        <v>30.22024908792401</v>
+        <v>27.00076832127657</v>
       </c>
       <c r="G24">
-        <v>43.96433067129311</v>
+        <v>38.44272384035089</v>
       </c>
       <c r="H24">
-        <v>4.182712215802181</v>
+        <v>4.091977216867098</v>
       </c>
       <c r="I24">
-        <v>4.050313561728982</v>
+        <v>3.904930531165982</v>
       </c>
       <c r="J24">
-        <v>12.38976071311225</v>
+        <v>11.52740428203441</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.35979521247194</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.469612700101299</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.7649832787527</v>
+        <v>26.7256456465497</v>
       </c>
       <c r="C25">
-        <v>20.79603384634649</v>
+        <v>22.26251820820949</v>
       </c>
       <c r="D25">
-        <v>3.629616875019791</v>
+        <v>3.822386656739532</v>
       </c>
       <c r="E25">
-        <v>31.9815453484883</v>
+        <v>31.89147563494627</v>
       </c>
       <c r="F25">
-        <v>27.89496684462032</v>
+        <v>25.25832756614623</v>
       </c>
       <c r="G25">
-        <v>40.25396438742764</v>
+        <v>35.39502233458251</v>
       </c>
       <c r="H25">
-        <v>3.631113792937052</v>
+        <v>3.574818582212016</v>
       </c>
       <c r="I25">
-        <v>3.575961185539978</v>
+        <v>3.502838834932345</v>
       </c>
       <c r="J25">
-        <v>11.80170030844674</v>
+        <v>11.26986524109531</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.62432699189041</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.979630170212495</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
